--- a/Machine Learning/hypo image list.xlsx
+++ b/Machine Learning/hypo image list.xlsx
@@ -21,6 +21,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
+    <t>09_21_01_050_006 colored.tif</t>
+  </si>
+  <si>
+    <t>09_21_01_050_008 colored.tif</t>
+  </si>
+  <si>
+    <t>09_22_82_610_001 colored.tif</t>
+  </si>
+  <si>
+    <t>09_22_82_610_000 colored.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_21_01_050_010 colored.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_22_82_610_002 colored.tif</t>
+  </si>
+  <si>
+    <t>09_22_82_610_003 colored.tif</t>
+  </si>
+  <si>
+    <t>09_22_82_610_005 colored.tif</t>
+  </si>
+  <si>
+    <t>hypo 1 colored.tiff</t>
+  </si>
+  <si>
+    <t>hypo 2 colored.tiff</t>
+  </si>
+  <si>
+    <t>hypo 3 colored.tiff</t>
+  </si>
+  <si>
+    <t>hypo 4 colored.tiff</t>
+  </si>
+  <si>
+    <t>hypo 1.tiff</t>
+  </si>
+  <si>
+    <t>hypo 2.tiff</t>
+  </si>
+  <si>
+    <t>hypo 3.tiff</t>
+  </si>
+  <si>
+    <t>hypo 4.tiff</t>
+  </si>
+  <si>
+    <t>09_22_82_610_007 colored.tif</t>
+  </si>
+  <si>
+    <t>09_22_82_610_010 colored.tif</t>
+  </si>
+  <si>
+    <t>09_22_82_610_011 colored.tif</t>
+  </si>
+  <si>
+    <t>hypo 5.tiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypo 5 colored.tiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypo 6.tiff</t>
+  </si>
+  <si>
+    <t>hypo 6 colored.tiff</t>
+  </si>
+  <si>
+    <t>hypo 7.tiff</t>
+  </si>
+  <si>
+    <t>hypo 7 colored.tiff</t>
+  </si>
+  <si>
+    <t>00_53_85_300_004.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hypo 8.tiff</t>
   </si>
   <si>
@@ -174,9 +257,6 @@
     <t>00_34_92_250_000.tif</t>
   </si>
   <si>
-    <t>00_34_92_250_004.tif</t>
-  </si>
-  <si>
     <t>00_53_85_300_001 colored.tif</t>
   </si>
   <si>
@@ -251,85 +331,6 @@
   <si>
     <t>00_34_92_250_004 colored.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09_21_01_050_006 colored.tif</t>
-  </si>
-  <si>
-    <t>09_21_01_050_008 colored.tif</t>
-  </si>
-  <si>
-    <t>09_22_82_610_001 colored.tif</t>
-  </si>
-  <si>
-    <t>09_22_82_610_000 colored.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09_21_01_050_010 colored.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09_22_82_610_002 colored.tif</t>
-  </si>
-  <si>
-    <t>09_22_82_610_003 colored.tif</t>
-  </si>
-  <si>
-    <t>09_22_82_610_005 colored.tif</t>
-  </si>
-  <si>
-    <t>hypo 1 colored.tiff</t>
-  </si>
-  <si>
-    <t>hypo 2 colored.tiff</t>
-  </si>
-  <si>
-    <t>hypo 3 colored.tiff</t>
-  </si>
-  <si>
-    <t>hypo 4 colored.tiff</t>
-  </si>
-  <si>
-    <t>hypo 1.tiff</t>
-  </si>
-  <si>
-    <t>hypo 2.tiff</t>
-  </si>
-  <si>
-    <t>hypo 3.tiff</t>
-  </si>
-  <si>
-    <t>hypo 4.tiff</t>
-  </si>
-  <si>
-    <t>09_22_82_610_007 colored.tif</t>
-  </si>
-  <si>
-    <t>09_22_82_610_010 colored.tif</t>
-  </si>
-  <si>
-    <t>09_22_82_610_011 colored.tif</t>
-  </si>
-  <si>
-    <t>hypo 5.tiff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hypo 5 colored.tiff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hypo 6.tiff</t>
-  </si>
-  <si>
-    <t>hypo 6 colored.tiff</t>
-  </si>
-  <si>
-    <t>hypo 7.tiff</t>
-  </si>
-  <si>
-    <t>hypo 7 colored.tiff</t>
   </si>
 </sst>
 </file>
@@ -706,7 +707,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -721,357 +722,358 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
